--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C49382A-00C2-4F3A-A3A7-3333F1140E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB585E3-D4DE-4A5B-B411-095491E659B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -35,10 +35,13 @@
     <t>ADMIN</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>ADD</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>LTIMindtree-Kolkata</t>
   </si>
 </sst>
 </file>
@@ -110,9 +113,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -456,51 +458,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB585E3-D4DE-4A5B-B411-095491E659B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F777-3B98-4148-B7B6-84CB10EB9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemList" sheetId="1" r:id="rId1"/>
+    <sheet name="UserLogs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F777-3B98-4148-B7B6-84CB10EB9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07D3C7-66FE-41CB-9B58-A194455681F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>ADD</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
   <si>
     <t>LTIMindtree-Kolkata</t>
@@ -458,55 +455,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" customWidth="1"/>
-    <col min="25" max="25" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
